--- a/data/trans_camb/P25_N_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_N_R2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,14</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,1</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>10,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>7,34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7,72</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8,54</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 19,22</t>
+          <t>-8,4; 19,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 10,01</t>
+          <t>-9,52; 18,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 26,96</t>
+          <t>-3,5; 28,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 28,31</t>
+          <t>-8,33; 25,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 16,93</t>
+          <t>-13,65; 18,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 12,92</t>
+          <t>-10,56; 23,36</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,95; 18,79</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-9,77; 12,79</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 19,83</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>89,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>48,03%</t>
+          <t>171,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>35,0%</t>
+          <t>61,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>55,97%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>44,98%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>65,02%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14,97%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>71,92%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,57; 719,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-81,7; 454,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 219,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,5; 216,69</t>
+          <t>-40,28; 271,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,67; 181,32</t>
+          <t>-56,42; 237,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,63; 131,87</t>
+          <t>-43,43; 267,57</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-24,17; 282,84</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-60,25; 194,0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-21,47; 297,11</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,55</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-11,29</t>
+          <t>-7,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,59</t>
+          <t>-7,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,9</t>
+          <t>-12,92</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,14</t>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-6,57</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-8,71</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-4,46</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 5,52</t>
+          <t>-22,9; 14,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 9,06</t>
+          <t>-22,8; 16,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 3,38</t>
+          <t>-25,5; 12,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 0,2</t>
+          <t>-26,06; 8,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 0,37</t>
+          <t>-30,29; 3,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,81; 0,56</t>
+          <t>-17,65; 20,19</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-20,7; 5,46</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-22,55; 4,26</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-19,45; 8,86</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-36,05%</t>
+          <t>-23,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-25,87%</t>
+          <t>-19,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-29,33%</t>
+          <t>-37,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-35,32%</t>
+          <t>-22,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-32,84%</t>
+          <t>-37,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-33,66%</t>
+          <t>8,12%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-23,76%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-31,5%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-16,14%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,74; 42,04</t>
+          <t>-72,23; 117,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,12; 71,4</t>
+          <t>-72,33; 111,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,05; 13,24</t>
+          <t>-81,48; 91,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,13; 1,63</t>
+          <t>-58,59; 37,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,49; 2,14</t>
+          <t>-69,99; 14,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,53; 3,1</t>
+          <t>-42,96; 84,84</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-58,16; 25,44</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-63,02; 21,26</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-55,88; 38,32</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,85</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>8,75</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,89</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8,25</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 7,2</t>
+          <t>-19,62; 8,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 14,29</t>
+          <t>-10,59; 20,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 10,41</t>
+          <t>-6,25; 24,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 10,92</t>
+          <t>-16,58; 10,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 5,34</t>
+          <t>-13,57; 13,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 9,06</t>
+          <t>-4,79; 24,2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-14,36; 5,64</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-8,31; 12,03</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 19,86</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-26,96%</t>
+          <t>-24,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>44,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>-7,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-11,02%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>23,05%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-12,33%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>26,1%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-67,42; 44,06</t>
+          <t>-68,29; 70,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-51,71; 89,41</t>
+          <t>-37,62; 158,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,73; 30,89</t>
+          <t>-22,65; 177,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 32,88</t>
+          <t>-36,73; 33,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,66; 20,18</t>
+          <t>-29,85; 41,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 32,48</t>
+          <t>-10,92; 78,27</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-38,67; 23,05</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-23,39; 45,99</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 75,99</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>11,74</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>-6,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-3,13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,91</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-4,41</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,59</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 15,22</t>
+          <t>-11,74; 18,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 8,78</t>
+          <t>-19,09; 9,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 7,62</t>
+          <t>-3,38; 25,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 11,65</t>
+          <t>-19,25; 7,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 7,82</t>
+          <t>-16,14; 12,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 7,36</t>
+          <t>-15,86; 10,64</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-12,25; 7,97</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-14,47; 6,05</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-7,5; 13,74</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,26%</t>
+          <t>-15,91%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,98%</t>
+          <t>30,76%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>-10,45%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,69%</t>
+          <t>-4,02%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>-5,35%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-3,89%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-8,98%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7,31%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 50,15</t>
+          <t>-25,76; 57,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 29,53</t>
+          <t>-42,75; 30,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 15,77</t>
+          <t>-6,7; 85,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 23,62</t>
+          <t>-30,7; 14,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 18,44</t>
+          <t>-25,58; 24,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 17,4</t>
+          <t>-24,64; 20,02</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-21,98; 19,73</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-26,93; 13,84</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-14,11; 31,97</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-6,39</t>
+          <t>-7,43</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>-6,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>10,23</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-6,96</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5,27</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 7,26</t>
+          <t>-28,48; 10,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 13,82</t>
+          <t>-20,8; 16,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 12,74</t>
+          <t>-20,89; 17,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 20,41</t>
+          <t>-23,72; 12,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 5,46</t>
+          <t>-10,26; 25,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 12,67</t>
+          <t>-9,31; 27,06</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-20,58; 6,18</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-10,89; 14,55</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-7,34; 18,23</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-12,7%</t>
+          <t>-14,03%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>-2,25%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,51%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>-10,18%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-6,85%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>17,01%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-12,42%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>9,41%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-34,37; 18,42</t>
+          <t>-45,46; 22,95</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,06; 32,03</t>
+          <t>-33,02; 38,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 24,35</t>
+          <t>-33,94; 40,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 38,13</t>
+          <t>-34,59; 25,74</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,22; 10,94</t>
+          <t>-15,35; 51,61</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 25,69</t>
+          <t>-12,48; 55,9</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-33,4; 12,23</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-17,3; 30,5</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-12,28; 36,91</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-5,07</t>
+          <t>-12,66</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-9,3</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-10,51</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-7,83</t>
+          <t>-6,02</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-4,41</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-7,55</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3,37</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 10,0</t>
+          <t>-33,9; 7,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 14,12</t>
+          <t>-29,13; 10,51</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 3,29</t>
+          <t>-16,09; 22,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 17,36</t>
+          <t>-12,16; 19,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-22,29; 3,32</t>
+          <t>-24,51; 12,7</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 13,38</t>
+          <t>-12,87; 18,72</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-18,38; 8,3</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-20,84; 6,27</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-8,54; 16,73</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-8,37%</t>
+          <t>-17,54%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>-12,89%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-13,14%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-10,94%</t>
+          <t>-7,42%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-5,71%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-9,78%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>4,36%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-31,07; 18,31</t>
+          <t>-42,62; 9,72</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 27,08</t>
+          <t>-36,82; 15,95</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-41,32; 4,2</t>
+          <t>-19,46; 37,12</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 24,79</t>
+          <t>-13,65; 26,99</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-29,54; 4,87</t>
+          <t>-28,54; 16,83</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 20,98</t>
+          <t>-14,46; 26,82</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-21,56; 12,49</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-24,46; 9,33</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-10,19; 24,55</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>6,78</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-3,36</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-3,45</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>4,72</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 2,46</t>
+          <t>-11,64; 4,15</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 2,81</t>
+          <t>-12,69; 3,24</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 2,72</t>
+          <t>-5,68; 11,62</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 7,76</t>
+          <t>-9,03; 4,83</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 0,73</t>
+          <t>-8,87; 5,56</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 4,05</t>
+          <t>0,41; 14,35</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; 2,0</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-8,5; 2,4</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 11,07</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-11,52%</t>
+          <t>-11,21%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-10,4%</t>
+          <t>-11,85%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>-5,42%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-8,46%</t>
+          <t>-4,59%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-3,16%</t>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-8,11%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-8,32%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>11,39%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 8,74</t>
+          <t>-29,76; 13,67</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 9,6</t>
+          <t>-32,19; 9,97</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 6,05</t>
+          <t>-15,66; 36,41</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 16,51</t>
+          <t>-18,23; 10,99</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 1,86</t>
+          <t>-17,55; 12,58</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 10,56</t>
+          <t>0,74; 32,87</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-19,87; 5,31</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-19,3; 6,3</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 28,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
